--- a/Data/Prades_data_stocks_Roma.xlsx
+++ b/Data/Prades_data_stocks_Roma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptive" sheetId="1" state="visible" r:id="rId2"/>
@@ -680,6 +680,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -733,11 +734,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="99854845"/>
-        <c:axId val="98239014"/>
+        <c:axId val="7102965"/>
+        <c:axId val="91394693"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99854845"/>
+        <c:axId val="7102965"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,7 +766,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98239014"/>
+        <c:crossAx val="91394693"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -773,7 +774,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98239014"/>
+        <c:axId val="91394693"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,7 +789,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -810,7 +811,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99854845"/>
+        <c:crossAx val="7102965"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -851,7 +852,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -869,9 +870,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>343800</xdr:colOff>
+      <xdr:colOff>343440</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -879,8 +880,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5150520" y="1836360"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="5154480" y="1836360"/>
+        <a:ext cx="5763600" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2912,10 +2913,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3909,6 +3910,8 @@
         <v>4.72348775728668</v>
       </c>
     </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3928,7 +3931,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4287,8 +4290,8 @@
   </sheetPr>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M34" activeCellId="0" sqref="M34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5567,13 +5570,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
@@ -5661,7 +5664,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="n">
+        <f aca="false">+4/10000</f>
+        <v>0.0004</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="0" t="n">
+        <f aca="false">+1.21+1.68</f>
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="0" t="n">
+        <f aca="false">+D34/2</f>
+        <v>1.445</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5685,7 +5705,7 @@
       <selection pane="topLeft" activeCell="I108" activeCellId="0" sqref="I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7735,7 +7755,7 @@
       <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -11334,7 +11354,7 @@
   </sheetPr>
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
